--- a/outgoing/estimates/PRO_est_Steelhead_2019_20200324.xlsx
+++ b/outgoing/estimates/PRO_est_Steelhead_2019_20200324.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\DabomYakimaSthd\outgoing\estimates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/kevin_see_dfw_wa_gov/Documents/Documents/Git/MyProjects/DabomYakimaSthd/outgoing/estimates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A4E568-3E95-43C6-804E-963E98BDCA1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{04A4E568-3E95-43C6-804E-963E98BDCA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2754BB2-30FB-4133-BDA8-254D8358C584}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Escapement" sheetId="1" r:id="rId1"/>
@@ -618,22 +618,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="5" width="2.88671875" customWidth="1"/>
-    <col min="6" max="7" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" customWidth="1"/>
+    <col min="5" max="5" width="2.90625" customWidth="1"/>
+    <col min="6" max="7" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -679,7 +679,7 @@
         <v>327.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -702,7 +702,7 @@
         <v>235.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -725,7 +725,7 @@
         <v>431.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -748,7 +748,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -785,17 +785,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="5" width="2.88671875" customWidth="1"/>
-    <col min="6" max="7" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" customWidth="1"/>
+    <col min="5" max="5" width="2.90625" customWidth="1"/>
+    <col min="6" max="7" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -841,7 +841,7 @@
         <v>142.4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -864,7 +864,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -887,7 +887,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -956,7 +956,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -979,7 +979,7 @@
         <v>335.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>273.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>186.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>128.4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>327.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>644.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>235.6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>182.2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1356,23 +1356,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
-    <col min="7" max="8" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" customWidth="1"/>
+    <col min="7" max="8" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
